--- a/template/test.xlsx
+++ b/template/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="837">
   <si>
     <t>Unit 1</t>
   </si>
@@ -1899,118 +1899,634 @@
     <t>straight</t>
   </si>
   <si>
+    <t>adj.直的</t>
+  </si>
+  <si>
     <t>tall</t>
   </si>
   <si>
+    <t>adj.高的</t>
+  </si>
+  <si>
     <t>medium</t>
   </si>
   <si>
+    <t>adj.中等的</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
-    <t>of medium</t>
+    <t>n.身高；高度</t>
+  </si>
+  <si>
+    <t>be of medium height</t>
+  </si>
+  <si>
+    <t>中等身高</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
+    <t>adj.瘦的</t>
+  </si>
+  <si>
     <t>heavy</t>
   </si>
   <si>
+    <t>adj.重的</t>
+  </si>
+  <si>
     <t>tonight</t>
   </si>
   <si>
+    <t>adv.今晚</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>adj.小的</t>
+  </si>
+  <si>
     <t>a little</t>
   </si>
   <si>
+    <t>一点；少量</t>
+  </si>
+  <si>
     <t>may</t>
   </si>
   <si>
+    <t>modal v.也许；可能；可以</t>
+  </si>
+  <si>
     <t>cinema</t>
   </si>
   <si>
+    <t>n.电影院</t>
+  </si>
+  <si>
     <t>glasses</t>
   </si>
   <si>
+    <t>n.眼镜</t>
+  </si>
+  <si>
     <t>later</t>
   </si>
   <si>
+    <t>adv.以后</t>
+  </si>
+  <si>
     <t>handsome</t>
   </si>
   <si>
+    <t>adj.英俊的</t>
+  </si>
+  <si>
     <t>actor</t>
   </si>
   <si>
+    <t>n.演员</t>
+  </si>
+  <si>
     <t>actress</t>
   </si>
   <si>
+    <t>n.女演员</t>
+  </si>
+  <si>
     <t>person</t>
   </si>
   <si>
+    <t>n.人</t>
+  </si>
+  <si>
     <t>nose</t>
   </si>
   <si>
+    <t>n.鼻子</t>
+  </si>
+  <si>
     <t>blonde</t>
   </si>
   <si>
+    <t>adj.头发金黄色的</t>
+  </si>
+  <si>
     <t>mouth</t>
   </si>
   <si>
+    <t>n.嘴</t>
+  </si>
+  <si>
     <t>round</t>
   </si>
   <si>
+    <t>adj.圆形有</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
+    <t>n.脸</t>
+  </si>
+  <si>
     <t>eye</t>
   </si>
   <si>
+    <t>n.眼睛</t>
+  </si>
+  <si>
     <t>singer</t>
   </si>
   <si>
+    <t>n.歌手</t>
+  </si>
+  <si>
     <t>artist</t>
   </si>
   <si>
+    <t>n.艺术家</t>
+  </si>
+  <si>
     <t>crime</t>
   </si>
   <si>
+    <t>n.犯罪活动</t>
+  </si>
+  <si>
     <t>criminal</t>
   </si>
   <si>
+    <t>n.罪犯</t>
+  </si>
+  <si>
     <t>put</t>
   </si>
   <si>
+    <t>v.放</t>
+  </si>
+  <si>
     <t>each</t>
   </si>
   <si>
+    <t>adj.&amp;pron.每个；各自</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
+    <t>n.方式；路线</t>
+  </si>
+  <si>
     <t>describe</t>
   </si>
   <si>
+    <t>v.描述</t>
+  </si>
+  <si>
     <t>differently</t>
   </si>
   <si>
+    <t>adv.不同的</t>
+  </si>
+  <si>
     <t>another</t>
   </si>
   <si>
+    <t>adj.&amp;pron.另一；又一</t>
+  </si>
+  <si>
     <t>end</t>
   </si>
   <si>
+    <t>n.结尾;尽头</t>
+  </si>
+  <si>
     <t>in the end</t>
   </si>
   <si>
+    <t>最后</t>
+  </si>
+  <si>
     <t>real</t>
   </si>
   <si>
+    <t>adj.真正的；真实的</t>
+  </si>
+  <si>
     <t>jeans</t>
   </si>
   <si>
+    <t>n.牛仔裤</t>
+  </si>
+  <si>
     <t>Unit 10</t>
+  </si>
+  <si>
+    <t>noodle</t>
+  </si>
+  <si>
+    <t>n.(常用复数形式)面条</t>
+  </si>
+  <si>
+    <t>mutton</t>
+  </si>
+  <si>
+    <t>n.羊肉</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>n.牛肉</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>n.卷心菜;洋白菜</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>n.土豆</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>would like</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>take one's order</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>one large bowl of</t>
+  </si>
+  <si>
+    <t>tofu</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>dumpling</t>
+  </si>
+  <si>
+    <t>porridge</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>pancake</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>around the world</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>make a wish</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>blow out</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>the UK</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>cut up</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>bring good luck to</t>
+  </si>
+  <si>
+    <t>Unit 11</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>milk a cow</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>ride a horse</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>feed chickens</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>quite</t>
+  </si>
+  <si>
+    <t>quite a lot of</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>countryside</t>
+  </si>
+  <si>
+    <t>in the countryside</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>luckily</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>museum</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>fire station</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>exciting</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>all in all</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>be intersted</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>Unit 12</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>badminton</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>visitor</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stay up late</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>run away</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>shout at</t>
+  </si>
+  <si>
+    <t>woof</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>kite</t>
+  </si>
+  <si>
+    <t>fly a kite</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>high school</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>tent</t>
+  </si>
+  <si>
+    <t>put up</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>each other</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>get a surprise</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>shout to</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>up and down</t>
+  </si>
+  <si>
+    <t>wake</t>
+  </si>
+  <si>
+    <t>wake up</t>
+  </si>
+  <si>
+    <t>into</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>ear</t>
   </si>
 </sst>
 </file>
@@ -2019,9 +2535,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2032,22 +2548,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2055,24 +2562,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2103,28 +2594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2133,6 +2603,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2162,8 +2647,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2185,7 +2701,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,37 +2749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2245,7 +2767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,31 +2797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2299,7 +2815,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,19 +2845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,37 +2875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,56 +2892,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2463,7 +2929,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2484,10 +3000,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2496,133 +3012,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2981,10 +3497,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C369"/>
+  <dimension ref="A1:C474"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -6392,418 +6908,1453 @@
         <v>625</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>623</v>
       </c>
       <c r="B310" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="311" spans="1:2">
+      <c r="C310" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>623</v>
       </c>
       <c r="B311" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+        <v>628</v>
+      </c>
+      <c r="C311" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>623</v>
       </c>
       <c r="B312" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+        <v>630</v>
+      </c>
+      <c r="C312" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>623</v>
       </c>
       <c r="B313" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+        <v>632</v>
+      </c>
+      <c r="C313" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>623</v>
       </c>
       <c r="B314" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
+        <v>634</v>
+      </c>
+      <c r="C314" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>623</v>
       </c>
       <c r="B315" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
+        <v>636</v>
+      </c>
+      <c r="C315" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>623</v>
       </c>
       <c r="B316" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <v>638</v>
+      </c>
+      <c r="C316" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>623</v>
       </c>
       <c r="B317" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
+        <v>640</v>
+      </c>
+      <c r="C317" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>623</v>
       </c>
       <c r="B318" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
+        <v>642</v>
+      </c>
+      <c r="C318" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>623</v>
       </c>
       <c r="B319" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
+        <v>644</v>
+      </c>
+      <c r="C319" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>623</v>
       </c>
       <c r="B320" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
+        <v>646</v>
+      </c>
+      <c r="C320" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>623</v>
       </c>
       <c r="B321" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+        <v>648</v>
+      </c>
+      <c r="C321" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>623</v>
       </c>
       <c r="B322" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <v>650</v>
+      </c>
+      <c r="C322" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>623</v>
       </c>
       <c r="B323" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <v>652</v>
+      </c>
+      <c r="C323" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>623</v>
       </c>
       <c r="B324" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+        <v>654</v>
+      </c>
+      <c r="C324" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>623</v>
       </c>
       <c r="B325" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+        <v>656</v>
+      </c>
+      <c r="C325" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>623</v>
       </c>
       <c r="B326" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
+        <v>658</v>
+      </c>
+      <c r="C326" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>623</v>
       </c>
       <c r="B327" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <v>660</v>
+      </c>
+      <c r="C327" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>623</v>
       </c>
       <c r="B328" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+        <v>662</v>
+      </c>
+      <c r="C328" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>623</v>
       </c>
       <c r="B329" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
+        <v>664</v>
+      </c>
+      <c r="C329" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>623</v>
       </c>
       <c r="B330" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
+        <v>666</v>
+      </c>
+      <c r="C330" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>623</v>
       </c>
       <c r="B331" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>668</v>
+      </c>
+      <c r="C331" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>623</v>
       </c>
       <c r="B332" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
+        <v>670</v>
+      </c>
+      <c r="C332" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>623</v>
       </c>
       <c r="B333" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
+        <v>672</v>
+      </c>
+      <c r="C333" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>623</v>
       </c>
       <c r="B334" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
+        <v>674</v>
+      </c>
+      <c r="C334" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>623</v>
       </c>
       <c r="B335" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <v>676</v>
+      </c>
+      <c r="C335" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>623</v>
       </c>
       <c r="B336" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+        <v>678</v>
+      </c>
+      <c r="C336" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>623</v>
       </c>
       <c r="B337" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
+        <v>680</v>
+      </c>
+      <c r="C337" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>623</v>
       </c>
       <c r="B338" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
+        <v>682</v>
+      </c>
+      <c r="C338" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>623</v>
       </c>
       <c r="B339" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
+        <v>684</v>
+      </c>
+      <c r="C339" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>623</v>
       </c>
       <c r="B340" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
+        <v>686</v>
+      </c>
+      <c r="C340" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>623</v>
       </c>
       <c r="B341" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
+        <v>688</v>
+      </c>
+      <c r="C341" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>623</v>
       </c>
       <c r="B342" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <v>690</v>
+      </c>
+      <c r="C342" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>623</v>
       </c>
       <c r="B343" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
+        <v>692</v>
+      </c>
+      <c r="C343" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>623</v>
       </c>
       <c r="B344" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
+        <v>694</v>
+      </c>
+      <c r="C344" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>623</v>
       </c>
       <c r="B345" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
+        <v>696</v>
+      </c>
+      <c r="C345" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>623</v>
       </c>
       <c r="B346" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
+        <v>698</v>
+      </c>
+      <c r="C346" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>623</v>
       </c>
       <c r="B347" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
+        <v>700</v>
+      </c>
+      <c r="C347" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B348" t="s">
+        <v>703</v>
+      </c>
+      <c r="C348" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B349" t="s">
+        <v>705</v>
+      </c>
+      <c r="C349" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B350" t="s">
+        <v>707</v>
+      </c>
+      <c r="C350" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B351" t="s">
+        <v>709</v>
+      </c>
+      <c r="C351" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B352" t="s">
+        <v>711</v>
+      </c>
+      <c r="C352" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B353" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B354" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B355" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B356" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B357" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B358" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B359" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B360" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B361" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B362" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B363" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B364" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B365" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B366" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B367" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
+        <v>702</v>
+      </c>
+      <c r="B368" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>664</v>
+        <v>702</v>
+      </c>
+      <c r="B369" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>702</v>
+      </c>
+      <c r="B370" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>702</v>
+      </c>
+      <c r="B371" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>702</v>
+      </c>
+      <c r="B372" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>702</v>
+      </c>
+      <c r="B373" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>702</v>
+      </c>
+      <c r="B374" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>702</v>
+      </c>
+      <c r="B375" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>702</v>
+      </c>
+      <c r="B376" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>702</v>
+      </c>
+      <c r="B377" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>702</v>
+      </c>
+      <c r="B378" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>702</v>
+      </c>
+      <c r="B379" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>702</v>
+      </c>
+      <c r="B380" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>702</v>
+      </c>
+      <c r="B381" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>702</v>
+      </c>
+      <c r="B382" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>702</v>
+      </c>
+      <c r="B383" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>702</v>
+      </c>
+      <c r="B384" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>702</v>
+      </c>
+      <c r="B385" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>702</v>
+      </c>
+      <c r="B386" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>702</v>
+      </c>
+      <c r="B387" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>702</v>
+      </c>
+      <c r="B388" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>749</v>
+      </c>
+      <c r="B389" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>749</v>
+      </c>
+      <c r="B390" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>749</v>
+      </c>
+      <c r="B391" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>749</v>
+      </c>
+      <c r="B392" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>749</v>
+      </c>
+      <c r="B393" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>749</v>
+      </c>
+      <c r="B394" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>749</v>
+      </c>
+      <c r="B395" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>749</v>
+      </c>
+      <c r="B396" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>749</v>
+      </c>
+      <c r="B397" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>749</v>
+      </c>
+      <c r="B398" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>749</v>
+      </c>
+      <c r="B399" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>749</v>
+      </c>
+      <c r="B400" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>749</v>
+      </c>
+      <c r="B401" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>749</v>
+      </c>
+      <c r="B402" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>749</v>
+      </c>
+      <c r="B403" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>749</v>
+      </c>
+      <c r="B404" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>749</v>
+      </c>
+      <c r="B405" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>749</v>
+      </c>
+      <c r="B406" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>749</v>
+      </c>
+      <c r="B407" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>749</v>
+      </c>
+      <c r="B408" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>749</v>
+      </c>
+      <c r="B409" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>749</v>
+      </c>
+      <c r="B410" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>749</v>
+      </c>
+      <c r="B411" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>749</v>
+      </c>
+      <c r="B412" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>749</v>
+      </c>
+      <c r="B413" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>749</v>
+      </c>
+      <c r="B414" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>749</v>
+      </c>
+      <c r="B415" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>749</v>
+      </c>
+      <c r="B416" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>749</v>
+      </c>
+      <c r="B417" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>749</v>
+      </c>
+      <c r="B418" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>749</v>
+      </c>
+      <c r="B419" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>749</v>
+      </c>
+      <c r="B420" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>749</v>
+      </c>
+      <c r="B421" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>749</v>
+      </c>
+      <c r="B422" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>749</v>
+      </c>
+      <c r="B423" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>749</v>
+      </c>
+      <c r="B424" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>749</v>
+      </c>
+      <c r="B425" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>749</v>
+      </c>
+      <c r="B426" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>749</v>
+      </c>
+      <c r="B427" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>749</v>
+      </c>
+      <c r="B428" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>749</v>
+      </c>
+      <c r="B429" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>791</v>
+      </c>
+      <c r="B430" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>791</v>
+      </c>
+      <c r="B431" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>791</v>
+      </c>
+      <c r="B432" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>791</v>
+      </c>
+      <c r="B433" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>791</v>
+      </c>
+      <c r="B434" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>791</v>
+      </c>
+      <c r="B435" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>791</v>
+      </c>
+      <c r="B436" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>791</v>
+      </c>
+      <c r="B437" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>791</v>
+      </c>
+      <c r="B438" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>791</v>
+      </c>
+      <c r="B439" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>791</v>
+      </c>
+      <c r="B440" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>791</v>
+      </c>
+      <c r="B441" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>791</v>
+      </c>
+      <c r="B442" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>791</v>
+      </c>
+      <c r="B443" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>791</v>
+      </c>
+      <c r="B444" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>791</v>
+      </c>
+      <c r="B445" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>791</v>
+      </c>
+      <c r="B446" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>791</v>
+      </c>
+      <c r="B447" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>791</v>
+      </c>
+      <c r="B448" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>791</v>
+      </c>
+      <c r="B449" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>791</v>
+      </c>
+      <c r="B450" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>791</v>
+      </c>
+      <c r="B451" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>791</v>
+      </c>
+      <c r="B452" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>791</v>
+      </c>
+      <c r="B453" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>791</v>
+      </c>
+      <c r="B454" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>791</v>
+      </c>
+      <c r="B455" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>791</v>
+      </c>
+      <c r="B456" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>791</v>
+      </c>
+      <c r="B457" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>791</v>
+      </c>
+      <c r="B458" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>791</v>
+      </c>
+      <c r="B459" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>791</v>
+      </c>
+      <c r="B460" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>791</v>
+      </c>
+      <c r="B461" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>791</v>
+      </c>
+      <c r="B462" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>791</v>
+      </c>
+      <c r="B463" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>791</v>
+      </c>
+      <c r="B464" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>791</v>
+      </c>
+      <c r="B465" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>791</v>
+      </c>
+      <c r="B466" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>791</v>
+      </c>
+      <c r="B467" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>791</v>
+      </c>
+      <c r="B468" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>791</v>
+      </c>
+      <c r="B469" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>791</v>
+      </c>
+      <c r="B470" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>791</v>
+      </c>
+      <c r="B471" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>791</v>
+      </c>
+      <c r="B472" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>791</v>
+      </c>
+      <c r="B473" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>791</v>
+      </c>
+      <c r="B474" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
